--- a/DesignerConfigs/Datas/__beans__.xlsx
+++ b/DesignerConfigs/Datas/__beans__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="23055" windowHeight="4440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>##var</t>
   </si>
@@ -81,6 +81,21 @@
   </si>
   <si>
     <t>注释</t>
+  </si>
+  <si>
+    <t>Status_Attack</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>Attack_Damage</t>
+  </si>
+  <si>
+    <t>CanAttackDistance</t>
+  </si>
+  <si>
+    <t>Attack_Type</t>
   </si>
 </sst>
 </file>
@@ -93,7 +108,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +129,11 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -566,52 +586,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -620,83 +640,83 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -704,6 +724,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="22" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1031,7 +1054,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
@@ -1040,7 +1063,7 @@
     <col min="3" max="3" width="52.75" customWidth="1"/>
     <col min="4" max="4" width="18.875" customWidth="1"/>
     <col min="5" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="21.75" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
     <col min="9" max="9" width="13.5" customWidth="1"/>
   </cols>
@@ -1118,17 +1141,29 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="7:8">
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="7:8">
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="7:8">
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
